--- a/files/POCAccountSetupandDataLoad_RHT.xlsx
+++ b/files/POCAccountSetupandDataLoad_RHT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/001-Tasks-active/20250115-travel-usecase-asset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/700-Apps/envizi-travel-usecase/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A316E262-1462-DB45-BE9D-738695BA8E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2095515-6891-2D47-8A29-F859EBD00C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,11 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5373970-457B-7B42-BDA6-3C6029B0952B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -772,7 +771,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -796,7 +795,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -820,7 +819,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -844,7 +843,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -868,7 +867,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -892,7 +891,7 @@
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -916,7 +915,7 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -940,7 +939,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -964,7 +963,7 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -988,7 +987,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1011,7 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1035,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1060,7 +1059,7 @@
       </c>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1083,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1107,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1155,7 @@
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1180,7 +1179,7 @@
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1203,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1228,7 +1227,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1251,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +1275,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1323,7 @@
       </c>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1347,7 @@
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1371,7 @@
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1395,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1443,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1467,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1491,7 @@
       </c>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1515,7 @@
       </c>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>10450</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>16150</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>18050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>27550</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>29450</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>31350</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>32300</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>33250</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>35150</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>36100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>40850</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>42750</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>14535</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>15390</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>16245</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>18810</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2506,7 +2505,7 @@
         <v>20520</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>21375</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>22230</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>23085</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>23940</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>24795</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>26505</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>27360</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>28215</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>29070</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>29925</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>30780</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>31635</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>33345</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>35055</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>35910</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>36765</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>37620</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>39330</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>40185</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -3059,15 +3058,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M100" xr:uid="{C5373970-457B-7B42-BDA6-3C6029B0952B}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Cus-S3-Computer-Electronic-Products-[USD]"/>
-        <filter val="Cus-S3-Office-Paper-[Kg]"/>
-        <filter val="Cus-S3-Waste-Recycled-[kg]"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M100" xr:uid="{C5373970-457B-7B42-BDA6-3C6029B0952B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
